--- a/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
+++ b/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Agenda pruebas" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist!$A$1:$J$37</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -21,7 +24,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -29,7 +32,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -38,14 +41,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Se creó usuario de pruebas "cstiprueba@cpsaa.com.pe" al que se le asignó 2 roles y los permisos respectivos, para verificar nuestras pruebas unitarias</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +56,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -62,14 +65,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 -Se insertaron parámetros del sistema</t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +80,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -86,14 +89,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Control Diario</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +142,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -148,14 +151,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hay un metodo que restringe el listado de productos cada que la matriz está inactiva</t>
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="I19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +166,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -172,7 +175,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 -En la mayoria de funcionalidades que carga el combo empresa
@@ -180,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +191,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -197,7 +200,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 En la funcionalidad Administrar Planta, en el registrar, no debe listar los negocios
@@ -210,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>Ejecutar script BD</t>
   </si>
@@ -287,15 +290,6 @@
     <t>Gráfico de Tendencia de Reporte Específico Consolidado y Control diario</t>
   </si>
   <si>
-    <t>Reporte Gerencial de Prefabricados</t>
-  </si>
-  <si>
-    <t>Reporte Gerencial de Concreto</t>
-  </si>
-  <si>
-    <t>Reporte gerencial 2- Resistencia a compresión por producto</t>
-  </si>
-  <si>
     <t>Gestión de stock de pre-fabricados, DINO</t>
   </si>
   <si>
@@ -321,6 +315,132 @@
   </si>
   <si>
     <t>Impacto en otras funcionalidades</t>
+  </si>
+  <si>
+    <t>ID generico en molienda cemento compósito</t>
+  </si>
+  <si>
+    <t>Mostrar los valores de U.M y el promedio (Reporte Consolidado en Archivo)</t>
+  </si>
+  <si>
+    <t>Impacto en funcionalidades que manejan ID Lote</t>
+  </si>
+  <si>
+    <t>Modificar funcionalidad "Detalle de Ensayo" para que presente las unidades de muestra sin redondeo a la decena</t>
+  </si>
+  <si>
+    <t>Mostrar cantidad de decimales de acuerdo a configuración en tabla tipo de ensayo</t>
+  </si>
+  <si>
+    <t>Agregar 3 campos Centro, Almacen e Imputación, en Administrar Planta, en el registro y modificación</t>
+  </si>
+  <si>
+    <t>Agregar validación para que no liste valores anulados por dispersión</t>
+  </si>
+  <si>
+    <t>Agregar campo Codigo de Material en el ingresar y modificar de Administrar Producto</t>
+  </si>
+  <si>
+    <t>Agregar matriz,GTE, tipo de ensayo - Realizar generación dinámica de gráfico de combinación de agregados</t>
+  </si>
+  <si>
+    <t>Agregar negocio al Administrar Proceso</t>
+  </si>
+  <si>
+    <t>Agregar flag de reporte promedio ponderado al Administrar Tipo de Ensayo</t>
+  </si>
+  <si>
+    <t>Kelly Cueva</t>
+  </si>
+  <si>
+    <t>Edwin Pacheco</t>
+  </si>
+  <si>
+    <t>Fernando Gastañaudi</t>
+  </si>
+  <si>
+    <t>Usuario Principal</t>
+  </si>
+  <si>
+    <t>Usuario Secundario</t>
+  </si>
+  <si>
+    <t>Prioridad U.P</t>
+  </si>
+  <si>
+    <t>Prioridad U.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwin Pacheco </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Rita Narro</t>
+  </si>
+  <si>
+    <t>Mie 16</t>
+  </si>
+  <si>
+    <t>Jue 17</t>
+  </si>
+  <si>
+    <t>Vie 18</t>
+  </si>
+  <si>
+    <t>Sab 19</t>
+  </si>
+  <si>
+    <t>Lun 21</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>Mie 23</t>
+  </si>
+  <si>
+    <t>Jue 24</t>
+  </si>
+  <si>
+    <t>Vie 25</t>
+  </si>
+  <si>
+    <t>Sab 26</t>
+  </si>
+  <si>
+    <t>Lun 28</t>
+  </si>
+  <si>
+    <t>Mar 29</t>
+  </si>
+  <si>
+    <t>Mie 30</t>
+  </si>
+  <si>
+    <t>K.C</t>
+  </si>
+  <si>
+    <t>E.P</t>
+  </si>
+  <si>
+    <t>F.G</t>
+  </si>
+  <si>
+    <t>Jue 31</t>
+  </si>
+  <si>
+    <t>Vie 01</t>
   </si>
 </sst>
 </file>
@@ -357,20 +477,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +520,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -479,6 +631,83 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,6 +715,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FFFF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -774,371 +1008,1525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12" ht="60">
+      <c r="B1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="32.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="5"/>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="5"/>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="29.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="B5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="30.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14">
+        <v>14</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="B18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14">
+        <v>16</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14">
+        <v>17</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="14">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="33" customHeight="1">
+      <c r="B25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" ht="33" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14">
+        <v>20</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="45">
+      <c r="A30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="14">
+        <v>22</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" ht="30">
+      <c r="A31" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="14">
+        <v>23</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" ht="30">
+      <c r="A32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="14">
+        <v>24</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" ht="30">
+      <c r="A33" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="14">
+        <v>25</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" ht="30">
+      <c r="A34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="14">
+        <v>26</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="30">
+      <c r="A35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16">
+        <v>27</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="30">
+      <c r="A37" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16">
         <v>28</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="33" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="9"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J37">
+    <filterColumn colId="1"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4:E4" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="8" style="13" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="13" customWidth="1"/>
+    <col min="13" max="14" width="7.28515625" style="13" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="46.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" s="23" customFormat="1" ht="30">
+      <c r="A4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="33" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="46.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="K12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" ht="30">
+      <c r="A15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" ht="30">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" ht="30">
+      <c r="A22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" ht="45">
+      <c r="A23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" ht="30">
+      <c r="A24" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" ht="30">
+      <c r="A25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" ht="61.5" customHeight="1">
+      <c r="A27" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" ht="50.25" customHeight="1">
+      <c r="A28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" ht="48" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="45.75" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="30">
+      <c r="A31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="45">
+      <c r="A32" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
+++ b/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="Agenda pruebas" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Agenda PI" sheetId="2" r:id="rId2"/>
+    <sheet name="Agenda PU" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist!$A$1:$J$37</definedName>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="87">
   <si>
     <t>Ejecutar script BD</t>
   </si>
@@ -441,6 +441,39 @@
   </si>
   <si>
     <t>Vie 01</t>
+  </si>
+  <si>
+    <t>Mar 08</t>
+  </si>
+  <si>
+    <t>Mie 09</t>
+  </si>
+  <si>
+    <t>Jue 10</t>
+  </si>
+  <si>
+    <t>Vie 11</t>
+  </si>
+  <si>
+    <t>Lun 14</t>
+  </si>
+  <si>
+    <t>Mar 15</t>
+  </si>
+  <si>
+    <t>SBM</t>
+  </si>
+  <si>
+    <t>JVA</t>
+  </si>
+  <si>
+    <t>DVQ</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>KP</t>
   </si>
 </sst>
 </file>
@@ -603,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -708,6 +741,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2534,12 +2579,484 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="7" style="42" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" s="23" customFormat="1" ht="30">
+      <c r="A4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" ht="33" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="30">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:8" ht="45">
+      <c r="A23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" ht="61.5" customHeight="1">
+      <c r="A27" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" ht="50.25" customHeight="1">
+      <c r="A28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" ht="48" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:8" ht="30">
+      <c r="A31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="45">
+      <c r="A32" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
+++ b/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="89">
   <si>
     <t>Ejecutar script BD</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>KP</t>
+  </si>
+  <si>
+    <t>FECHAS PRUEBAS INTEGRALES</t>
+  </si>
+  <si>
+    <t>Usuario:</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -632,11 +638,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -709,12 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +803,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1818,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1843,232 +1923,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C5" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K5" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M5" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P5" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="46.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:16" ht="46.5" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" s="23" customFormat="1" ht="30">
-      <c r="A4" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="G6" s="17"/>
-      <c r="H6" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="17"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="32" t="s">
+    <row r="8" spans="1:16" s="23" customFormat="1" ht="30">
+      <c r="A8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" ht="33" customHeight="1">
+      <c r="D8" s="28"/>
+      <c r="E8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2076,21 +2155,21 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="46.5" customHeight="1">
+    <row r="11" spans="1:16" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2099,20 +2178,19 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="31.5" customHeight="1">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -2122,18 +2200,19 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="K12" s="32" t="s">
+      <c r="J12" s="30" t="s">
         <v>72</v>
       </c>
+      <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="30">
+    <row r="13" spans="1:16" ht="33" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -2142,20 +2221,20 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="J13" s="17"/>
-      <c r="K13" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="30">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2167,39 +2246,39 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="32" t="s">
+      <c r="L14" s="30" t="s">
         <v>72</v>
       </c>
+      <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="30">
-      <c r="A15" s="36" t="s">
-        <v>16</v>
+    <row r="15" spans="1:16" ht="46.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:16" ht="31.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -2209,19 +2288,18 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="30">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -2232,18 +2310,18 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="30">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -2256,21 +2334,23 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="O18" s="17"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
+    <row r="19" spans="1:16" ht="30">
+      <c r="A19" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -2280,14 +2360,12 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="O19" s="17"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2301,46 +2379,44 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="32" t="s">
+      <c r="N20" s="30" t="s">
         <v>72</v>
       </c>
+      <c r="O20" s="17"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:16" ht="30">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="27" t="s">
-        <v>71</v>
-      </c>
+      <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="17"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16" ht="30">
-      <c r="A22" s="37" t="s">
-        <v>23</v>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="34" t="s">
-        <v>73</v>
-      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -2348,18 +2424,18 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16" ht="45">
-      <c r="A23" s="36" t="s">
-        <v>24</v>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -2370,16 +2446,16 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16" ht="30">
-      <c r="A24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>73</v>
-      </c>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2392,21 +2468,23 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="12"/>
+      <c r="O24" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" ht="30">
-      <c r="A25" s="36" t="s">
-        <v>26</v>
+      <c r="A25" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="34" t="s">
-        <v>73</v>
-      </c>
+      <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -2417,18 +2495,18 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A26" s="36" t="s">
-        <v>27</v>
+    <row r="26" spans="1:16" ht="30">
+      <c r="A26" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="B26" s="17"/>
-      <c r="C26" s="34" t="s">
-        <v>73</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -2439,17 +2517,17 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:16" ht="61.5" customHeight="1">
-      <c r="A27" s="38" t="s">
-        <v>37</v>
+    <row r="27" spans="1:16" ht="45">
+      <c r="A27" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -2461,17 +2539,17 @@
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:16" ht="50.25" customHeight="1">
-      <c r="A28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="17"/>
+    <row r="28" spans="1:16" ht="30">
+      <c r="A28" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -2483,13 +2561,15 @@
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:16" ht="48" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>39</v>
+    <row r="29" spans="1:16" ht="30">
+      <c r="A29" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -2501,16 +2581,16 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="45.75" customHeight="1">
-      <c r="A30" s="24" t="s">
-        <v>41</v>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="C30" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -2523,19 +2603,19 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="30">
-      <c r="A31" s="25" t="s">
-        <v>43</v>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" ht="61.5" customHeight="1">
+      <c r="A31" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -2545,19 +2625,19 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="45">
-      <c r="A32" s="25" t="s">
-        <v>44</v>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" ht="50.25" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -2567,11 +2647,103 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" ht="48" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="30" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="45.75" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30">
+      <c r="A35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="45">
+      <c r="A36" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2581,42 +2753,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="7" style="42" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="7" style="40" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2624,73 +2796,73 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" s="23" customFormat="1" ht="30">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="37" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2698,363 +2870,363 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="33" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="46.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="30">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="45">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" ht="30">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="61.5" customHeight="1">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="48" customHeight="1">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="45.75" customHeight="1">
       <c r="A30" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" ht="30">
       <c r="A31" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" ht="45">
       <c r="A32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
+++ b/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="94">
   <si>
     <t>Ejecutar script BD</t>
   </si>
@@ -480,6 +480,21 @@
   </si>
   <si>
     <t>Usuario:</t>
+  </si>
+  <si>
+    <t>Alex Morales</t>
+  </si>
+  <si>
+    <t>Kenny Palacios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Barboza </t>
+  </si>
+  <si>
+    <t>David Vivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Vara </t>
   </si>
 </sst>
 </file>
@@ -593,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -688,11 +703,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -810,29 +834,44 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1923,90 +1962,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="41" t="s">
@@ -2751,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2770,108 +2809,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="54"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="52"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F6" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H6" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="7" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B7" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" s="23" customFormat="1" ht="30">
-      <c r="A4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -2881,12 +2895,12 @@
       <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
+      <c r="A8" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2894,12 +2908,12 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
+    <row r="9" spans="1:8" s="23" customFormat="1" ht="30">
+      <c r="A9" s="33" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
@@ -2908,49 +2922,55 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="E10" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:8" ht="46.5" customHeight="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" ht="31.5" customHeight="1">
+        <v>85</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>86</v>
       </c>
+      <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
@@ -2962,55 +2982,53 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="33" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="37" t="s">
-        <v>82</v>
-      </c>
+      <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="34" t="s">
-        <v>16</v>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="37"/>
-      <c r="C15" s="37" t="s">
-        <v>84</v>
-      </c>
+      <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="46.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" s="37"/>
-      <c r="C16" s="37" t="s">
-        <v>85</v>
-      </c>
+      <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="31.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -3018,217 +3036,294 @@
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="37"/>
-      <c r="E18" s="37" t="s">
-        <v>82</v>
-      </c>
+      <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="37" t="s">
-        <v>85</v>
-      </c>
+      <c r="D19" s="37"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
+    <row r="20" spans="1:8" ht="30">
+      <c r="A20" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37" t="s">
-        <v>85</v>
-      </c>
+      <c r="C20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="37" t="s">
         <v>85</v>
       </c>
+      <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="35" t="s">
-        <v>23</v>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37" t="s">
-        <v>84</v>
-      </c>
+      <c r="C22" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" ht="45">
-      <c r="A23" s="34" t="s">
-        <v>24</v>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="37"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
     </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>83</v>
-      </c>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="37"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
     </row>
-    <row r="25" spans="1:8" ht="30">
-      <c r="A25" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="37"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="37"/>
+    <row r="26" spans="1:8" ht="30">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:8" ht="61.5" customHeight="1">
-      <c r="A27" s="36" t="s">
-        <v>37</v>
+    <row r="27" spans="1:8" ht="30">
+      <c r="A27" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="B27" s="37"/>
-      <c r="C27" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
     </row>
-    <row r="28" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>38</v>
+    <row r="28" spans="1:8" ht="45">
+      <c r="A28" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="37"/>
-      <c r="C28" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
     </row>
-    <row r="29" spans="1:8" ht="48" customHeight="1">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:8" ht="30">
+      <c r="A29" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" ht="30">
+      <c r="A30" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" ht="61.5" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" ht="50.25" customHeight="1">
+      <c r="A33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" ht="48" customHeight="1">
+      <c r="A34" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A35" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="30">
-      <c r="A31" s="25" t="s">
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" ht="30">
+      <c r="A36" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" ht="45">
-      <c r="A32" s="25" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" ht="45">
+      <c r="A37" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
+++ b/FASE 2/DOCUMENTACIÓN/Checklist de funcionalidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="95">
   <si>
     <t>Ejecutar script BD</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t xml:space="preserve">John Vara </t>
+  </si>
+  <si>
+    <t>Código en duro</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -843,6 +846,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -859,19 +865,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1321,6 +1328,10 @@
       <c r="J5" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="K5" s="56"/>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
@@ -1701,7 +1712,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="57" t="s">
+        <v>29</v>
+      </c>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="33" customHeight="1">
@@ -1962,90 +1975,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="41" t="s">
@@ -2792,7 +2805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -2809,46 +2822,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="55" t="s">
